--- a/hasil_jadwal.xlsx
+++ b/hasil_jadwal.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,27 +556,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -586,32 +586,32 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -621,27 +621,27 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
     </row>
@@ -698,27 +698,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -728,47 +728,47 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -798,17 +798,17 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -818,17 +818,17 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
@@ -860,17 +860,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -880,69 +880,69 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="S4" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -950,27 +950,27 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -980,27 +980,27 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
           <t>SOC6</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>M</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1072,12 +1072,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1107,12 +1107,12 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1147,32 +1147,32 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
           <t>SOC6</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>P6</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1204,82 +1204,82 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1314,22 +1314,22 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1351,112 +1351,112 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1466,17 +1466,17 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1508,157 +1508,157 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
         <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1705,32 +1705,32 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1755,52 +1755,52 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1847,87 +1847,87 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1947,27 +1947,27 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2009,37 +2009,37 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2054,32 +2054,32 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2089,57 +2089,57 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2156,32 +2156,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2201,27 +2201,27 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2241,47 +2241,47 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2333,142 +2333,142 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
         <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -2480,27 +2480,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2510,12 +2510,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2530,27 +2530,27 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2560,72 +2560,72 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>SOC6</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -2642,157 +2642,157 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2814,22 +2814,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2859,92 +2859,92 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P8</t>
         </is>
       </c>
     </row>
@@ -2966,149 +2966,149 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>SOC6</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="AE17" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3143,132 +3143,132 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
         <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
         <is>
           <t>P11</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>P8</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
@@ -3290,157 +3290,157 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>SOC6</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
           <t>SOCM</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -3467,132 +3467,132 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3629,137 +3629,137 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="AE21" t="inlineStr">
         <is>
           <t>SOCM</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>Libur</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
@@ -3781,107 +3781,107 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -3896,17 +3896,17 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
     </row>
@@ -3943,132 +3943,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
@@ -4110,22 +4110,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -4150,42 +4150,42 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -4195,7 +4195,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -4205,17 +4205,17 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -4225,32 +4225,32 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>S12</t>
         </is>
       </c>
     </row>
@@ -4262,47 +4262,47 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -4317,82 +4317,82 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
@@ -4429,152 +4429,152 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>SOC6</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
         <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -4586,47 +4586,47 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -4656,77 +4656,77 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>SOC2</t>
         </is>
       </c>
     </row>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -4768,127 +4768,127 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
+      <c r="AB28" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -4915,62 +4915,62 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -4980,82 +4980,82 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>SOC6</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
@@ -5087,142 +5087,142 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -5234,12 +5234,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5254,12 +5254,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -5284,67 +5284,67 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -5354,22 +5354,22 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
@@ -5379,12 +5379,12 @@
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5416,87 +5416,87 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
         <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -5531,12 +5531,12 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -5558,12 +5558,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5578,32 +5578,32 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -5618,17 +5618,17 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -5648,32 +5648,32 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P7</t>
         </is>
       </c>
     </row>
@@ -5720,12 +5720,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -5735,7 +5735,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -5745,112 +5745,112 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -5860,17 +5860,17 @@
       </c>
       <c r="AD34" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
           <t>P11</t>
-        </is>
-      </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>P7</t>
         </is>
       </c>
     </row>

--- a/hasil_jadwal.xlsx
+++ b/hasil_jadwal.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,12 +556,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -586,72 +586,72 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -698,12 +698,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -713,142 +713,142 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
         <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
         <is>
           <t>SOC6</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -870,42 +870,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -920,77 +920,77 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
         <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1022,22 +1022,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1047,39 +1047,39 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>M</t>
@@ -1092,12 +1092,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1112,67 +1112,67 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P7</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1209,32 +1209,32 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1244,12 +1244,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1274,52 +1274,52 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1351,17 +1351,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1376,17 +1376,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1396,22 +1396,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1426,67 +1426,67 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1523,12 +1523,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1538,12 +1538,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1553,39 +1553,39 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="R8" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -1593,17 +1593,17 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1623,27 +1623,27 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1653,12 +1653,12 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -1670,12 +1670,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1685,37 +1685,37 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1725,12 +1725,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1745,22 +1745,22 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -1770,17 +1770,17 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1832,12 +1832,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1847,27 +1847,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1877,27 +1877,27 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1917,24 +1917,24 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="W10" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -1947,22 +1947,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2009,59 +2009,59 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>P6</t>
@@ -2069,77 +2069,77 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2156,157 +2156,157 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
     </row>
@@ -2318,62 +2318,62 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>SOC6</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -2383,27 +2383,27 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2413,14 +2413,14 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
       <c r="W13" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2438,27 +2438,27 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
           <t>P11</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>SOC2</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -2480,157 +2480,157 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SOC6</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -2642,84 +2642,84 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="R15" t="inlineStr">
         <is>
           <t>M</t>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -2747,7 +2747,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -2762,37 +2762,37 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -2804,32 +2804,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2854,107 +2854,107 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3011,92 +3011,92 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>SOC6</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
     </row>
@@ -3128,14 +3128,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -3148,12 +3148,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3168,62 +3168,62 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -3233,42 +3233,42 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3305,12 +3305,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3320,27 +3320,27 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -3350,57 +3350,57 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -3415,17 +3415,17 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3487,37 +3487,37 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -3542,27 +3542,27 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -3572,32 +3572,32 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3629,102 +3629,102 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3734,32 +3734,32 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
@@ -3781,144 +3781,144 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>SOC6</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
       <c r="AE22" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -3926,7 +3926,7 @@
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -3938,139 +3938,139 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="AC23" t="inlineStr">
         <is>
           <t>S12</t>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
@@ -4100,152 +4100,152 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
@@ -4262,114 +4262,114 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
         <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="X25" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -4377,32 +4377,32 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Cuti</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P11</t>
         </is>
       </c>
     </row>
@@ -4424,17 +4424,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -4444,137 +4444,137 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
     </row>
@@ -4586,24 +4586,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>S12</t>
@@ -4621,122 +4621,122 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
         <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -4748,157 +4748,157 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
         <is>
           <t>SOC2</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AE28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AF28" t="inlineStr">
-        <is>
-          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -4910,12 +4910,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -4930,127 +4930,127 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
         <is>
           <t>SOC2</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>P8</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
@@ -5072,144 +5072,144 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="Y30" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="AD30" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
     </row>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5254,12 +5254,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -5269,17 +5269,17 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -5324,12 +5324,12 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -5344,12 +5344,12 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -5359,22 +5359,22 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
@@ -5396,7 +5396,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5416,17 +5416,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -5436,77 +5436,77 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -5521,17 +5521,17 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P8</t>
         </is>
       </c>
     </row>
@@ -5563,17 +5563,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5583,17 +5583,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -5603,22 +5603,22 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -5633,47 +5633,47 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -5720,47 +5720,47 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -5770,99 +5770,99 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
+      <c r="AC34" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="AD34" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="AE34" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -5870,7 +5870,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>

--- a/hasil_jadwal.xlsx
+++ b/hasil_jadwal.xlsx
@@ -536,7 +536,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -556,132 +556,132 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -728,94 +728,94 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
           <t>P8</t>
@@ -828,7 +828,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -838,17 +838,17 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -860,52 +860,52 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -915,32 +915,32 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -950,27 +950,27 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -980,22 +980,22 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
     </row>
@@ -1022,12 +1022,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1047,17 +1047,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1072,62 +1072,62 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1162,17 +1162,17 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -1184,87 +1184,87 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1274,32 +1274,32 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1314,22 +1314,22 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1351,42 +1351,42 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1431,17 +1431,17 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1451,42 +1451,42 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1523,14 +1523,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>P6</t>
@@ -1538,17 +1538,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1563,74 +1563,74 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>P8</t>
@@ -1638,12 +1638,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1653,12 +1653,12 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1685,27 +1685,27 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1750,77 +1750,77 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
           <t>SOC6</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>M</t>
         </is>
       </c>
     </row>
@@ -1832,12 +1832,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1862,37 +1862,37 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1917,72 +1917,72 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2009,112 +2009,112 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -2129,12 +2129,12 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -2156,32 +2156,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2196,17 +2196,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2216,12 +2216,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2241,27 +2241,27 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -2276,12 +2276,12 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2291,22 +2291,22 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
     </row>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2333,142 +2333,142 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
     </row>
@@ -2480,147 +2480,147 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2652,82 +2652,82 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -2747,12 +2747,12 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2762,12 +2762,12 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2777,17 +2777,17 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
@@ -2804,157 +2804,157 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>SOC6</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
         <is>
           <t>P10</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>M</t>
         </is>
       </c>
     </row>
@@ -2966,157 +2966,157 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="Y17" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
         <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -3128,157 +3128,157 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -3290,47 +3290,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -3345,22 +3345,22 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3370,37 +3370,37 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -3420,27 +3420,27 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>P9</t>
         </is>
       </c>
     </row>
@@ -3452,157 +3452,157 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3639,127 +3639,127 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
         <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
         <is>
           <t>SOCM</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>M</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
@@ -3781,147 +3781,147 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>SOC6</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>SOC6</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
       <c r="Z22" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
@@ -3938,82 +3938,82 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -4028,17 +4028,17 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -4058,32 +4058,32 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
@@ -4100,47 +4100,47 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4150,12 +4150,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -4165,92 +4165,92 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
           <t>SOC2</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>S12</t>
         </is>
       </c>
     </row>
@@ -4262,157 +4262,157 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>SOC6</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -4424,157 +4424,157 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
         <is>
           <t>SOCM</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>S12</t>
         </is>
       </c>
     </row>
@@ -4586,12 +4586,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4601,137 +4601,137 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
@@ -4748,12 +4748,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4763,142 +4763,142 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
         <is>
           <t>P11</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="AE28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AF28" t="inlineStr">
-        <is>
-          <t>SOC2</t>
         </is>
       </c>
     </row>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4920,32 +4920,32 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -4955,7 +4955,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -4980,82 +4980,82 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
@@ -5077,22 +5077,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -5162,67 +5162,67 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5249,117 +5249,117 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -5369,22 +5369,22 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
     </row>
@@ -5396,17 +5396,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Cuti</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>Cuti</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>Cuti</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -5421,17 +5421,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -5446,84 +5446,84 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
         <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="AB32" t="inlineStr">
         <is>
           <t>P7</t>
@@ -5531,12 +5531,12 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -5558,117 +5558,117 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
         <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
     </row>
@@ -5720,102 +5720,102 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
@@ -5845,7 +5845,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">

--- a/hasil_jadwal.xlsx
+++ b/hasil_jadwal.xlsx
@@ -536,7 +536,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,57 +556,57 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -616,22 +616,22 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -661,32 +661,32 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
     </row>
@@ -698,12 +698,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -713,12 +713,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -728,17 +728,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -748,22 +748,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -788,22 +788,22 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -838,17 +838,17 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -880,137 +880,137 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
         <is>
           <t>SOC6</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>P6</t>
         </is>
       </c>
     </row>
@@ -1027,62 +1027,62 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1092,47 +1092,47 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1162,12 +1162,12 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1189,112 +1189,112 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
         <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1304,32 +1304,32 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1346,17 +1346,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1366,27 +1366,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1396,22 +1396,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1431,62 +1431,62 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1523,104 +1523,104 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -1628,17 +1628,17 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -1653,12 +1653,12 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1715,87 +1715,87 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -1832,12 +1832,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1847,17 +1847,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1867,27 +1867,27 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="V10" t="inlineStr">
         <is>
           <t>P7</t>
@@ -1942,27 +1942,27 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -1977,12 +1977,12 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2019,122 +2019,122 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>SOC6</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>M</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -2156,12 +2156,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2171,17 +2171,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2211,72 +2211,72 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2286,27 +2286,27 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -2318,32 +2318,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2353,112 +2353,112 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2495,27 +2495,27 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2540,87 +2540,87 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
@@ -2642,137 +2642,137 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
         <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -2782,17 +2782,17 @@
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOCM</t>
         </is>
       </c>
     </row>
@@ -2804,27 +2804,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2834,87 +2834,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2934,27 +2934,27 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2986,47 +2986,47 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -3046,77 +3046,77 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3138,147 +3138,147 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3300,147 +3300,147 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
         <is>
           <t>SOC2</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>P9</t>
         </is>
       </c>
     </row>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3467,17 +3467,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3492,117 +3492,117 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3629,12 +3629,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3649,12 +3649,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -3664,62 +3664,62 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3744,22 +3744,22 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
@@ -3781,147 +3781,147 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>SOC6</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
@@ -3938,12 +3938,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3963,92 +3963,92 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -4058,12 +4058,12 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -4073,17 +4073,17 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4110,22 +4110,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -4135,62 +4135,62 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -4200,17 +4200,17 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -4225,12 +4225,12 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -4240,17 +4240,17 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -4267,147 +4267,147 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
@@ -4424,112 +4424,112 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
@@ -4544,22 +4544,22 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
@@ -4569,12 +4569,12 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4586,22 +4586,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4611,127 +4611,127 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
         <is>
           <t>SOCM</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>Libur</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4758,117 +4758,117 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -4910,157 +4910,157 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
         <is>
           <t>P11</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AE29" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -5072,127 +5072,127 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
@@ -5217,12 +5217,12 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
     </row>
@@ -5234,14 +5234,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -5249,137 +5249,137 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
           <t>P11</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>Libur</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -5441,27 +5441,27 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -5476,12 +5476,12 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -5491,12 +5491,12 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -5511,22 +5511,22 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
     </row>
@@ -5558,22 +5558,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -5583,12 +5583,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -5608,62 +5608,62 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
@@ -5673,17 +5673,17 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -5725,32 +5725,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -5765,92 +5765,92 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
@@ -5860,7 +5860,7 @@
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">

--- a/hasil_jadwal.xlsx
+++ b/hasil_jadwal.xlsx
@@ -546,32 +546,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -586,32 +586,32 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -621,22 +621,22 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -713,102 +713,102 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -818,17 +818,17 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -838,17 +838,17 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -880,92 +880,92 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -990,17 +990,17 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -1027,17 +1027,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1047,22 +1047,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1077,102 +1077,102 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
           <t>SOC6</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -1184,42 +1184,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1249,22 +1249,22 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1274,42 +1274,42 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1346,32 +1346,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1381,82 +1381,82 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
         <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1466,12 +1466,12 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1481,12 +1481,12 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1508,82 +1508,82 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1638,12 +1638,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1685,52 +1685,52 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1750,32 +1750,32 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1847,27 +1847,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1882,12 +1882,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1922,52 +1922,52 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2019,17 +2019,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2039,17 +2039,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2059,22 +2059,22 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -2084,27 +2084,27 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2114,27 +2114,27 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -2156,12 +2156,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2171,17 +2171,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2196,32 +2196,32 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2231,82 +2231,82 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
         <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -2318,152 +2318,152 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
         <is>
           <t>SOC2</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>Libur</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
@@ -2485,42 +2485,42 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2530,82 +2530,82 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2615,17 +2615,17 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -2642,32 +2642,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2677,122 +2677,122 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -2804,139 +2804,139 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
       <c r="AC16" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -2944,12 +2944,12 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2991,52 +2991,52 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -3056,62 +3056,62 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
@@ -3133,32 +3133,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -3168,117 +3168,117 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -3295,77 +3295,77 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -3390,17 +3390,17 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -3415,22 +3415,22 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -3467,17 +3467,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -3492,32 +3492,32 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -3527,12 +3527,12 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -3557,52 +3557,52 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
     </row>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3629,137 +3629,137 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
@@ -3781,17 +3781,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -3816,117 +3816,117 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
     </row>
@@ -3938,17 +3938,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3963,127 +3963,127 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
         <is>
           <t>P11</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>P9</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
@@ -4100,157 +4100,157 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>SOC6</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4262,157 +4262,157 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
         <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
         <is>
           <t>SOCM</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -4429,109 +4429,109 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
       <c r="X26" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -4586,109 +4586,109 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="W27" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -4696,22 +4696,22 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
@@ -4748,157 +4748,157 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
           <t>P11</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AE28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AF28" t="inlineStr">
-        <is>
-          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4920,34 +4920,34 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -4970,89 +4970,89 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="AE29" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -5060,7 +5060,7 @@
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -5072,94 +5072,94 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
       <c r="T30" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -5167,12 +5167,12 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -5182,32 +5182,32 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
@@ -5217,12 +5217,12 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -5234,157 +5234,157 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -5426,12 +5426,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -5441,12 +5441,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -5486,12 +5486,12 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -5501,12 +5501,12 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
@@ -5558,117 +5558,117 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
         <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>M</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -5725,99 +5725,99 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="V34" t="inlineStr">
         <is>
           <t>P10</t>
@@ -5825,7 +5825,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
@@ -5850,17 +5850,17 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">

--- a/hasil_jadwal.xlsx
+++ b/hasil_jadwal.xlsx
@@ -536,7 +536,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,87 +556,87 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -671,22 +671,22 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -713,12 +713,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -728,47 +728,47 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -783,27 +783,27 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -818,17 +818,17 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
     </row>
@@ -860,89 +860,89 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="S4" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -950,62 +950,62 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1022,22 +1022,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1072,17 +1072,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1092,67 +1092,67 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1162,17 +1162,17 @@
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -1184,12 +1184,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -1214,117 +1214,117 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
         <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1356,52 +1356,52 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1421,72 +1421,72 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
@@ -1508,37 +1508,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1558,92 +1558,92 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1653,12 +1653,12 @@
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1685,32 +1685,32 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -1785,42 +1785,42 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
           <t>SOC6</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>M</t>
         </is>
       </c>
     </row>
@@ -1832,37 +1832,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1877,27 +1877,27 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1922,17 +1922,17 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1957,17 +1957,17 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -1977,12 +1977,12 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
     </row>
@@ -1994,137 +1994,137 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -2134,7 +2134,7 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2171,17 +2171,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2211,17 +2211,17 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2241,27 +2241,27 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>M</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -2271,37 +2271,37 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2348,12 +2348,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2393,82 +2393,82 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
         <is>
           <t>P11</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>S12</t>
         </is>
       </c>
     </row>
@@ -2480,47 +2480,47 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SOC6</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2555,77 +2555,77 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
@@ -2642,157 +2642,157 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
     </row>
@@ -2804,37 +2804,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2864,79 +2864,79 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
       <c r="AC16" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -2944,12 +2944,12 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2981,94 +2981,94 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
           <t>SOC6</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="W17" t="inlineStr">
         <is>
           <t>P10</t>
@@ -3076,42 +3076,42 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
@@ -3128,62 +3128,62 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -3193,72 +3193,72 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
@@ -3295,152 +3295,152 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -3452,157 +3452,157 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
         <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
     </row>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3629,12 +3629,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3644,22 +3644,22 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -3669,72 +3669,72 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>M</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -3744,22 +3744,22 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>SOC2</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>SOC6</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
@@ -3781,152 +3781,152 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SOC6</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AE22" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -3943,79 +3943,79 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>SOC6</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="R23" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -4028,17 +4028,17 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -4048,42 +4048,42 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
           <t>SOC2</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AE23" t="inlineStr">
-        <is>
-          <t>P11</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
@@ -4100,82 +4100,82 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>SOCM</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
@@ -4200,57 +4200,57 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>SOC6</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
         <is>
           <t>SOCM</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>M</t>
         </is>
       </c>
     </row>
@@ -4262,157 +4262,157 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
         <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -4424,17 +4424,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>SOC2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -4449,89 +4449,89 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
       <c r="X26" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -4544,12 +4544,12 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -4559,12 +4559,12 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
@@ -4574,7 +4574,7 @@
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
     </row>
@@ -4586,152 +4586,152 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>SOC6</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
@@ -4753,104 +4753,104 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>SOC2</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
       <c r="W28" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -4858,7 +4858,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -4868,22 +4868,22 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>SOCM</t>
+          <t>M</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>P11</t>
+          <t>M</t>
         </is>
       </c>
     </row>
@@ -4915,24 +4915,24 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
       <c r="G29" t="inlineStr">
         <is>
           <t>S12</t>
@@ -4945,117 +4945,117 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>SOC2</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
         <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
+      <c r="AD29" t="inlineStr">
         <is>
           <t>SOC2</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
@@ -5077,152 +5077,152 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Cuti</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
           <t>SOCM</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Cuti</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>SOCM</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
         <is>
           <t>SOC2</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>SOCM</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AD30" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="AE30" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="AF30" t="inlineStr">
-        <is>
-          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -5234,12 +5234,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>P6</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>S12</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5249,49 +5249,49 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>P10</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -5304,17 +5304,17 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -5324,62 +5324,62 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>S12</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>S12</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>P10</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>S12</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
@@ -5421,22 +5421,22 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P11</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -5446,87 +5446,87 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>P9</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
@@ -5536,17 +5536,17 @@
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
     </row>
@@ -5558,27 +5558,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>P9</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -5608,67 +5608,67 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>P9</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
+      <c r="V33" t="inlineStr">
         <is>
           <t>P11</t>
         </is>
       </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -5678,12 +5678,12 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P9</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="AE33" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
@@ -5720,32 +5720,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P7</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -5755,12 +5755,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>P7</t>
+          <t>P10</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>P8</t>
+          <t>Libur</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -5770,99 +5770,99 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>P8</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>P11</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>Libur</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>P7</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="AD34" t="inlineStr">
         <is>
           <t>P10</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>P11</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>P8</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>Libur</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>P10</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>P7</t>
-        </is>
-      </c>
       <c r="AE34" t="inlineStr">
         <is>
           <t>Libur</t>
@@ -5870,7 +5870,7 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>Libur</t>
+          <t>P8</t>
         </is>
       </c>
     </row>
